--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF2776-501A-49A0-97B2-F6A7A5F01C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D376C02-9D1C-46A1-9F86-F2D34A0BC3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -51,63 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName</t>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>iconWidth</t>
-  </si>
-  <si>
-    <t>iconHeight</t>
-  </si>
-  <si>
-    <t>itemPrefab</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>atkRate</t>
-  </si>
-  <si>
-    <t>critRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>critDamage</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>lifeSteal</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>weaponTier</t>
-  </si>
-  <si>
-    <t>projectile</t>
-  </si>
-  <si>
-    <t>numberOfProjectile</t>
-  </si>
-  <si>
     <t>Axe</t>
   </si>
   <si>
@@ -131,6 +74,61 @@
   <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_name</t>
+  </si>
+  <si>
+    <t>_description</t>
+  </si>
+  <si>
+    <t>_spritePath</t>
+  </si>
+  <si>
+    <t>_iconWidth</t>
+  </si>
+  <si>
+    <t>_iconHeight</t>
+  </si>
+  <si>
+    <t>_prefabPath</t>
+  </si>
+  <si>
+    <t>_price</t>
+  </si>
+  <si>
+    <t>_atk</t>
+  </si>
+  <si>
+    <t>_atkRate</t>
+  </si>
+  <si>
+    <t>_critRate</t>
+  </si>
+  <si>
+    <t>_critDamage</t>
+  </si>
+  <si>
+    <t>_range</t>
+  </si>
+  <si>
+    <t>_lifeSteal</t>
+  </si>
+  <si>
+    <t>_type</t>
+  </si>
+  <si>
+    <t>_weaponTier</t>
+  </si>
+  <si>
+    <t>_projectilePath</t>
+  </si>
+  <si>
+    <t>_numberOfProjectile</t>
   </si>
 </sst>
 </file>
@@ -496,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,58 +513,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -574,13 +572,13 @@
         <v>110001</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -589,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -613,13 +611,13 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -630,13 +628,13 @@
         <v>110011</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -645,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -669,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="R3">
         <v>0</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D376C02-9D1C-46A1-9F86-F2D34A0BC3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E540549-9C84-41BD-A0C5-974A43485864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,13 +122,26 @@
     <t>_type</t>
   </si>
   <si>
-    <t>_weaponTier</t>
-  </si>
-  <si>
     <t>_projectilePath</t>
   </si>
   <si>
     <t>_numberOfProjectile</t>
+  </si>
+  <si>
+    <t>_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,21 +505,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="33.5" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
     <col min="17" max="17" width="21.5" customWidth="1"/>
     <col min="18" max="18" width="18.5" customWidth="1"/>
   </cols>
@@ -537,39 +550,39 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>110001</v>
+        <v>10001011</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -592,12 +605,12 @@
       <c r="H2">
         <v>24</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
@@ -605,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>10</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
@@ -625,13 +638,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>110011</v>
+        <v>10001012</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -640,20 +653,20 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>0.7</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
@@ -661,16 +674,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>10</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
       </c>
       <c r="Q3" t="s">
         <v>13</v>
@@ -681,57 +694,169 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>120001</v>
+        <v>10001013</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10002011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0.7</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20001011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>35</v>
       </c>
-      <c r="I4">
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="K6">
         <v>0.7</v>
       </c>
-      <c r="K4">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="N4">
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P6" t="s">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="Q6" t="s">
         <v>5</v>
       </c>
-      <c r="R4">
+      <c r="R6">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E540549-9C84-41BD-A0C5-974A43485864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50159B19-CCD5-460B-91CC-098ADFAFE112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,12 +57,6 @@
     <t>발등 조심하세요.</t>
   </si>
   <si>
-    <t>Resources/Icons/Weapons</t>
-  </si>
-  <si>
-    <t>Resources/Prefabs/Weapons</t>
-  </si>
-  <si>
     <t>Melee</t>
   </si>
   <si>
@@ -141,6 +135,18 @@
   </si>
   <si>
     <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Icons/Weapons/Axe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Icons/Weapons/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Prefabs/Weapons/Axe_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,14 +514,14 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="33.5" customWidth="1"/>
@@ -526,58 +532,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -591,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -600,13 +606,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -627,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -647,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -656,13 +662,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -683,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -703,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -712,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -739,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -753,13 +759,13 @@
         <v>10002011</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -768,13 +774,13 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -795,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -830,7 +836,7 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>3</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50159B19-CCD5-460B-91CC-098ADFAFE112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C17146-2441-4AFC-A41C-C40A2CF841AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Items/Icons/Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Prefabs/Weapons/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,15 +130,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Items/Icons/Weapons/Axe_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Icons/Weapons/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Prefabs/Weapons/Axe_1</t>
+    <t>Resources/Items/Icons/Weapons/Melee/Axe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Icons/Weapons/Melee/Spear1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Icons/Weapon/Range/Bow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Prefabs/Weapons/Melee/Axe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Prefabs/Weapons/Melee/Spear_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Prefabs/Weapons/Range/Bow_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,76 +518,76 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
+    <col min="7" max="7" width="42.75" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="17" max="17" width="31.5" customWidth="1"/>
     <col min="18" max="18" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -591,13 +595,13 @@
         <v>10001011</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -606,13 +610,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -633,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -647,13 +651,13 @@
         <v>10001012</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -662,13 +666,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -689,10 +693,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -703,13 +707,13 @@
         <v>10001013</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -718,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -745,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -759,13 +763,13 @@
         <v>10002011</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -774,13 +778,13 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -801,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -815,13 +819,13 @@
         <v>20001011</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -830,13 +834,13 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -860,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C17146-2441-4AFC-A41C-C40A2CF841AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507EE03-4159-454E-A68B-CBA8BF9B8734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="38400" yWindow="2445" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Items/Prefabs/Projectiles/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Axe</t>
   </si>
   <si>
@@ -108,9 +104,6 @@
     <t>_type</t>
   </si>
   <si>
-    <t>_projectilePath</t>
-  </si>
-  <si>
     <t>_numberOfProjectile</t>
   </si>
   <si>
@@ -151,6 +144,14 @@
   </si>
   <si>
     <t>Resources/Items/Prefabs/Weapons/Range/Bow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_projectileTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +519,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,58 +537,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -595,13 +596,13 @@
         <v>10001011</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -610,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -637,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -651,13 +652,13 @@
         <v>10001012</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -666,13 +667,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -693,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -707,13 +708,13 @@
         <v>10001013</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -722,13 +723,13 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -749,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -763,13 +764,13 @@
         <v>10002011</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -778,13 +779,13 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -805,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -825,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -834,13 +835,13 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -864,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="R6">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507EE03-4159-454E-A68B-CBA8BF9B8734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE5A08-D591-4E0E-9EA9-C13701541D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2445" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,7 +868,7 @@
         <v>36</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AE5A08-D591-4E0E-9EA9-C13701541D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DB098-3EE7-41EA-A556-41F2EEBD3C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2445" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,26 @@
   </si>
   <si>
     <t>Arrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Icons/Weapon/Range/Wand_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Prefabs/Weapons/Range/Wand_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,6 +888,62 @@
         <v>36</v>
       </c>
       <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20002011</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852DB098-3EE7-41EA-A556-41F2EEBD3C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899C2EA2-FBC2-4921-B5E6-23A4E97C842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2445" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10001011</v>
+        <v>10111011</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10001012</v>
+        <v>10111012</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10001013</v>
+        <v>10111013</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10002011</v>
+        <v>10112013</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>20001011</v>
+        <v>10121011</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>20002011</v>
+        <v>10122011</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899C2EA2-FBC2-4921-B5E6-23A4E97C842E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC7B7A-BACB-4231-8297-14C0EE1B03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,12 +83,6 @@
     <t>_price</t>
   </si>
   <si>
-    <t>_atk</t>
-  </si>
-  <si>
-    <t>_atkRate</t>
-  </si>
-  <si>
     <t>_critRate</t>
   </si>
   <si>
@@ -172,6 +166,18 @@
   </si>
   <si>
     <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_magicAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_atkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_physicalAtk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,12 +556,13 @@
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="42.75" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="17" max="17" width="31.5" customWidth="1"/>
-    <col min="18" max="18" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="18" max="18" width="31.5" customWidth="1"/>
+    <col min="19" max="19" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -581,37 +588,40 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10111011</v>
       </c>
@@ -622,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -631,19 +641,19 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -652,22 +662,25 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10111012</v>
       </c>
@@ -678,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -687,19 +700,19 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -708,22 +721,25 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>8</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10111013</v>
       </c>
@@ -734,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -743,19 +759,19 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -764,22 +780,25 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>8</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10112013</v>
       </c>
@@ -790,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -799,43 +818,46 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.7</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>8</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10121011</v>
       </c>
@@ -846,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -855,95 +877,101 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.7</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>10</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10122011</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
       </c>
       <c r="H7">
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>10</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC7B7A-BACB-4231-8297-14C0EE1B03FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B45A80-BFE3-4BB7-8EEB-2134E77100D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_projectileTag</t>
+    <t>Wand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Icons/Weapon/Range/Wand_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Prefabs/Weapons/Range/Wand_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_magicAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_atkSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_physicalAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_projectileID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,35 +177,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Icons/Weapon/Range/Wand_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Prefabs/Weapons/Range/Wand_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_magicAtk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_atkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_physicalAtk</t>
+    <t>Cube</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,13 +591,13 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s">
         <v>17</v>
@@ -615,7 +615,7 @@
         <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -921,22 +921,22 @@
         <v>10122011</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
       </c>
       <c r="H7">
         <v>35</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S7">
         <v>3</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B45A80-BFE3-4BB7-8EEB-2134E77100D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E79269-F4F9-4287-A296-72B1EBCBD6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -117,30 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Items/Icons/Weapons/Melee/Axe_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Icons/Weapons/Melee/Spear1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Icons/Weapon/Range/Bow_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Prefabs/Weapons/Melee/Axe_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Prefabs/Weapons/Melee/Spear_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Prefabs/Weapons/Range/Bow_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Items/Icons/Weapon/Range/Wand_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Items/Prefabs/Weapons/Range/Wand_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_magicAtk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +146,38 @@
   </si>
   <si>
     <t>Cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Axe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Spear1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapon/Range/Bow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapon/Range/Wand_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Axe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Spear_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Range/Bow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Range/Wand_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,13 +591,13 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
         <v>17</v>
@@ -615,7 +615,7 @@
         <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
@@ -632,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -691,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -809,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -921,13 +921,13 @@
         <v>10122011</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>35</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="S7">
         <v>3</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E79269-F4F9-4287-A296-72B1EBCBD6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCE8612-11A6-44C0-88AB-8C1798F434E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="1125" yWindow="780" windowWidth="26490" windowHeight="14025" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -157,14 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items/Icons/Weapon/Range/Bow_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items/Icons/Weapon/Range/Wand_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Prefabs/Weapons/Melee/Axe_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +170,14 @@
   </si>
   <si>
     <t>Items/Prefabs/Weapons/Range/Wand_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Range/Bow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Range/Wand_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -392,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,7 +545,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -927,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>35</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCE8612-11A6-44C0-88AB-8C1798F434E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09914BD2-6612-45E2-A743-7F2D5EB3A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="780" windowWidth="26490" windowHeight="14025" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="1095" yWindow="7125" windowWidth="26490" windowHeight="8070" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items/Icons/Weapons/Melee/Spear1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Prefabs/Weapons/Melee/Axe_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +174,10 @@
   </si>
   <si>
     <t>Items/Icons/Weapons/Range/Wand_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Spear_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +545,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -809,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>30</v>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>35</v>
@@ -927,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>35</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09914BD2-6612-45E2-A743-7F2D5EB3A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C7850E-F41C-4359-8102-44CBD93D38A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="7125" windowWidth="26490" windowHeight="8070" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="1935" yWindow="5160" windowWidth="26640" windowHeight="8550" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCE8612-11A6-44C0-88AB-8C1798F434E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA89B0A9-C0AC-487B-B54A-04B94EDEA411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="780" windowWidth="26490" windowHeight="14025" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>Items/Icons/Weapons/Range/Wand_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -392,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,121 +550,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="42.75" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="18" max="18" width="31.5" customWidth="1"/>
-    <col min="19" max="19" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="42.75" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="19" max="19" width="31.5" customWidth="1"/>
+    <col min="20" max="20" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10111011</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -665,57 +677,60 @@
         <v>1</v>
       </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>8</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10111012</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -724,57 +739,60 @@
         <v>1</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
         <v>5</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>8</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10111013</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -783,195 +801,207 @@
         <v>1</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
         <v>5</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>8</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10112013</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>24</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0.7</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>4</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
         <v>5</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>8</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10121011</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>24</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.7</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>33</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10122011</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>24</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>5</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>10</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>34</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA89B0A9-C0AC-487B-B54A-04B94EDEA411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C60B85-1BD4-495C-9025-152CBFC5AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="645" yWindow="5385" windowWidth="26640" windowHeight="8550" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items/Icons/Weapons/Melee/Spear1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Prefabs/Weapons/Melee/Axe_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +182,10 @@
   </si>
   <si>
     <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Spear_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,7 +553,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -638,7 +638,7 @@
         <v>10111011</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -700,7 +700,7 @@
         <v>10111012</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>24</v>
@@ -762,7 +762,7 @@
         <v>10111013</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -780,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>24</v>
@@ -824,7 +824,7 @@
         <v>10112013</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -833,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>30</v>
@@ -886,7 +886,7 @@
         <v>10121011</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>35</v>
@@ -948,7 +948,7 @@
         <v>10122011</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <v>35</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C60B85-1BD4-495C-9025-152CBFC5AF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B6BBD-18C6-4D38-9185-D126605F4601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="5385" windowWidth="26640" windowHeight="8550" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,22 @@
   </si>
   <si>
     <t>Items/Icons/Weapons/Melee/Spear_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Sword_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,17 +566,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="39.625" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
@@ -821,19 +837,19 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10112013</v>
+        <v>10112011</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -842,22 +858,22 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -883,37 +899,37 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10121011</v>
+        <v>10113011</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -922,51 +938,51 @@
         <v>0.7</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
         <v>5</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
-        <v>0</v>
-      </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10122011</v>
+        <v>10121011</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7">
         <v>35</v>
@@ -975,13 +991,13 @@
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -999,9 +1015,71 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10122011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
         <v>34</v>
       </c>
-      <c r="T7">
+      <c r="T8">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B6BBD-18C6-4D38-9185-D126605F4601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1604D5D5-D13D-404E-99B9-84394938B732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1604D5D5-D13D-404E-99B9-84394938B732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BA6341-C6EA-4F7D-9B82-91534312246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>36</v>
       </c>
       <c r="I3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" t="s">
         <v>5</v>
@@ -799,13 +799,13 @@
         <v>36</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s">
         <v>5</v>
@@ -867,7 +867,7 @@
         <v>24</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>24</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>24</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M8">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BA6341-C6EA-4F7D-9B82-91534312246A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E864CA6-74E5-4567-BD95-42EBDA547644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E864CA6-74E5-4567-BD95-42EBDA547644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76755F-3822-49F0-8462-D1293E7E4BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,13 +585,13 @@
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="42.75" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="19" max="19" width="31.5" customWidth="1"/>
-    <col min="20" max="20" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="20" max="20" width="31.5" customWidth="1"/>
+    <col min="21" max="21" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -616,40 +620,43 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10111011</v>
       </c>
@@ -677,17 +684,17 @@
       <c r="I2">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -696,22 +703,25 @@
         <v>1</v>
       </c>
       <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>7</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>8</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10111012</v>
       </c>
@@ -739,17 +749,17 @@
       <c r="I3">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -758,22 +768,25 @@
         <v>1</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>7</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>5</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>8</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10111013</v>
       </c>
@@ -801,17 +814,17 @@
       <c r="I4">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>30</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,22 +833,25 @@
         <v>1</v>
       </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>7</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>5</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>8</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10112011</v>
       </c>
@@ -863,17 +879,17 @@
       <c r="I5">
         <v>35</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>30</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -882,22 +898,25 @@
         <v>1</v>
       </c>
       <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>7</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
         <v>5</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>8</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10113011</v>
       </c>
@@ -925,41 +944,44 @@
       <c r="I6">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>0.7</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>7</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
         <v>5</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>8</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10121011</v>
       </c>
@@ -987,41 +1009,44 @@
       <c r="I7">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
         <v>24</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>30</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>0.7</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10122011</v>
       </c>
@@ -1049,37 +1074,40 @@
       <c r="I8">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>20</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>5</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
         <v>34</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76755F-3822-49F0-8462-D1293E7E4BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E7E8EB-724D-4D2F-B6CC-E42570E99540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E7E8EB-724D-4D2F-B6CC-E42570E99540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6FF574-A4FB-4D33-9773-9460638D2B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="510" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6FF574-A4FB-4D33-9773-9460638D2B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B832D53B-C957-47B8-8D10-B1D92B43DA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -836,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B832D53B-C957-47B8-8D10-B1D92B43DA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E4B11-CAF2-43CB-834D-46D571DB02BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -821,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>48</v>
       </c>
       <c r="I5">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>15</v>
@@ -886,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -918,19 +918,19 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10113011</v>
+        <v>10112012</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -939,37 +939,37 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" t="s">
         <v>5</v>
@@ -983,84 +983,84 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10121011</v>
+        <v>10112013</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I7">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10122011</v>
+        <v>10113011</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1069,10 +1069,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>15</v>
@@ -1081,33 +1081,423 @@
         <v>24</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.7</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10121011</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9">
         <v>20</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.7</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>10</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10121012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>55</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.6</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10121013</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>85</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10122011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
         <v>34</v>
       </c>
-      <c r="U8">
+      <c r="U12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10122012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10122013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>90</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14">
         <v>3</v>
       </c>
     </row>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522E4B11-CAF2-43CB-834D-46D571DB02BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9B420-482D-4DB7-88ED-354C4A6FB76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_sfxTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_1</t>
+  </si>
+  <si>
+    <t>Spear_1</t>
+  </si>
+  <si>
+    <t>Wand_1</t>
+  </si>
+  <si>
+    <t>Bow_1</t>
+  </si>
+  <si>
+    <t>Bow_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,9 +613,10 @@
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="20" max="20" width="31.5" customWidth="1"/>
     <col min="21" max="21" width="18.5" customWidth="1"/>
+    <col min="22" max="22" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -655,8 +680,11 @@
       <c r="U1" t="s">
         <v>22</v>
       </c>
+      <c r="V1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10111011</v>
       </c>
@@ -720,8 +748,11 @@
       <c r="U2">
         <v>0</v>
       </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10111012</v>
       </c>
@@ -785,8 +816,11 @@
       <c r="U3">
         <v>0</v>
       </c>
+      <c r="V3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10111013</v>
       </c>
@@ -850,8 +884,11 @@
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10112011</v>
       </c>
@@ -915,8 +952,11 @@
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="V5" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10112012</v>
       </c>
@@ -980,8 +1020,11 @@
       <c r="U6">
         <v>0</v>
       </c>
+      <c r="V6" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10112013</v>
       </c>
@@ -1045,8 +1088,11 @@
       <c r="U7">
         <v>0</v>
       </c>
+      <c r="V7" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10113011</v>
       </c>
@@ -1110,8 +1156,11 @@
       <c r="U8">
         <v>0</v>
       </c>
+      <c r="V8" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10121011</v>
       </c>
@@ -1175,8 +1224,11 @@
       <c r="U9">
         <v>1</v>
       </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10121012</v>
       </c>
@@ -1240,8 +1292,11 @@
       <c r="U10">
         <v>2</v>
       </c>
+      <c r="V10" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10121013</v>
       </c>
@@ -1305,8 +1360,11 @@
       <c r="U11">
         <v>3</v>
       </c>
+      <c r="V11" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10122011</v>
       </c>
@@ -1370,8 +1428,11 @@
       <c r="U12">
         <v>3</v>
       </c>
+      <c r="V12" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10122012</v>
       </c>
@@ -1435,8 +1496,11 @@
       <c r="U13">
         <v>3</v>
       </c>
+      <c r="V13" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10122013</v>
       </c>
@@ -1499,6 +1563,9 @@
       </c>
       <c r="U14">
         <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9B420-482D-4DB7-88ED-354C4A6FB76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC5E7DC-C96F-4121-A23F-0711A851CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -719,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="L2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="L4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>24</v>
       </c>
       <c r="L5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>24</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>20</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
       </c>
       <c r="N9">
         <v>0.7</v>
@@ -1263,10 +1263,10 @@
         <v>25</v>
       </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>25</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
       </c>
       <c r="N10">
         <v>0.6</v>
@@ -1331,10 +1331,10 @@
         <v>26</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>30</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
       </c>
       <c r="N11">
         <v>0.5</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC5E7DC-C96F-4121-A23F-0711A851CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC9C3E-7B5C-4BE1-9D78-0332A6AAF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1162,143 +1162,143 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10121011</v>
+        <v>10113012</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.8</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9">
-        <v>35</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>20</v>
-      </c>
-      <c r="N9">
-        <v>0.7</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10121012</v>
+        <v>10113013</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10121013</v>
+        <v>10121011</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1322,28 +1322,28 @@
         <v>38</v>
       </c>
       <c r="I11">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1358,60 +1358,60 @@
         <v>33</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10122011</v>
+        <v>10121012</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -1423,63 +1423,63 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10122012</v>
+        <v>10121013</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -1491,18 +1491,18 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U13">
         <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10122013</v>
+        <v>10122011</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -1526,19 +1526,19 @@
         <v>39</v>
       </c>
       <c r="I14">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="J14">
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1565,6 +1565,142 @@
         <v>3</v>
       </c>
       <c r="V14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10122012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>35</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10122013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>50</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AC9C3E-7B5C-4BE1-9D78-0332A6AAF6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45023F6-F2C6-4891-A317-95B7B382E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,35 +201,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_sfxTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_1</t>
+  </si>
+  <si>
+    <t>Spear_1</t>
+  </si>
+  <si>
+    <t>Wand_1</t>
+  </si>
+  <si>
+    <t>Bow_1</t>
+  </si>
+  <si>
+    <t>Bow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_sfxTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axe_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword_1</t>
-  </si>
-  <si>
-    <t>Spear_1</t>
-  </si>
-  <si>
-    <t>Wand_1</t>
-  </si>
-  <si>
-    <t>Bow_1</t>
-  </si>
-  <si>
-    <t>Bow_1</t>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +600,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
         <v>23</v>
@@ -681,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="V1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -817,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -911,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I5">
         <v>28</v>
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -979,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I6">
         <v>48</v>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1047,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I7">
         <v>68</v>
@@ -1089,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1157,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1225,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1361,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1429,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1497,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1565,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="V14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -1633,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1701,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45023F6-F2C6-4891-A317-95B7B382E13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D175B4-3960-4577-A8F8-ECA9C093F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,12 +48,6 @@
     <t>Melee</t>
   </si>
   <si>
-    <t>Spear</t>
-  </si>
-  <si>
-    <t>창</t>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items/Prefabs/Weapons/Melee/Spear_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Prefabs/Weapons/Range/Bow_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items/Icons/Weapons/Melee/Spear_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,9 +200,6 @@
   </si>
   <si>
     <t>Sword_1</t>
-  </si>
-  <si>
-    <t>Spear_1</t>
   </si>
   <si>
     <t>Wand_1</t>
@@ -597,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,70 +604,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
       <c r="V1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -692,7 +675,7 @@
         <v>10111011</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -701,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -710,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -719,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L2">
         <v>30</v>
@@ -746,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -760,7 +743,7 @@
         <v>10111012</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -769,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -778,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>28</v>
@@ -787,7 +770,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>35</v>
@@ -814,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="T3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -828,7 +811,7 @@
         <v>10111013</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -837,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -846,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>32</v>
@@ -855,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L4">
         <v>45</v>
@@ -882,13 +865,13 @@
         <v>5</v>
       </c>
       <c r="T4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -896,17 +879,17 @@
         <v>10112011</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -914,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I5">
         <v>28</v>
@@ -923,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L5">
         <v>30</v>
@@ -950,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -964,17 +947,17 @@
         <v>10112012</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -982,7 +965,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I6">
         <v>48</v>
@@ -991,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L6">
         <v>40</v>
@@ -1018,13 +1001,13 @@
         <v>5</v>
       </c>
       <c r="T6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1032,17 +1015,17 @@
         <v>10112013</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -1050,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I7">
         <v>68</v>
@@ -1059,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <v>50</v>
@@ -1086,252 +1069,252 @@
         <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10113011</v>
+        <v>10121011</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>20</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10113012</v>
+        <v>10121012</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9">
+        <v>55</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>0.6</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
         <v>50</v>
-      </c>
-      <c r="J9">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9">
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.8</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10113013</v>
+        <v>10121013</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N10">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10121011</v>
+        <v>10122011</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11">
         <v>35</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1340,7 +1323,7 @@
         <v>20</v>
       </c>
       <c r="N11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>5</v>
@@ -1358,63 +1341,63 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10121012</v>
+        <v>10122012</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I12">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -1426,63 +1409,63 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10121013</v>
+        <v>10122013</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -1494,217 +1477,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U13">
         <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>10122011</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14">
-        <v>35</v>
-      </c>
-      <c r="J14">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14">
-        <v>3</v>
-      </c>
-      <c r="V14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10122012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15">
-        <v>60</v>
-      </c>
-      <c r="J15">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>35</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>10</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>34</v>
-      </c>
-      <c r="U15">
-        <v>3</v>
-      </c>
-      <c r="V15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10122013</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16">
-        <v>90</v>
-      </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>50</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D175B4-3960-4577-A8F8-ECA9C093F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A57DE-4E06-4B16-91B2-729B66A76256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
         <v>34</v>
       </c>
       <c r="I3">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>34</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -968,7 +968,7 @@
         <v>51</v>
       </c>
       <c r="I6">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J6">
         <v>15</v>
@@ -1036,7 +1036,7 @@
         <v>51</v>
       </c>
       <c r="I7">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="J7">
         <v>15</v>
@@ -1172,7 +1172,7 @@
         <v>35</v>
       </c>
       <c r="I9">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1240,7 +1240,7 @@
         <v>35</v>
       </c>
       <c r="I10">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>36</v>
       </c>
       <c r="I12">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J12">
         <v>15</v>
@@ -1444,7 +1444,7 @@
         <v>36</v>
       </c>
       <c r="I13">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="J13">
         <v>15</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A57DE-4E06-4B16-91B2-729B66A76256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B6341E-E1D6-4591-8860-8D4B9ABEA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,9 @@
   <si>
     <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_Ricochet</t>
   </si>
 </sst>
 </file>
@@ -284,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -324,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -430,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="U8">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B6341E-E1D6-4591-8860-8D4B9ABEA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8675DDA-34A4-4C20-A3B1-E262AF86D93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A57DE-4E06-4B16-91B2-729B66A76256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8389ACA-D195-4EFB-B5D7-3A8534B087D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="30" yWindow="315" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_particleID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,9 +604,10 @@
     <col min="20" max="20" width="31.5" customWidth="1"/>
     <col min="21" max="21" width="18.5" customWidth="1"/>
     <col min="22" max="22" width="15.125" customWidth="1"/>
+    <col min="23" max="23" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -669,8 +674,11 @@
       <c r="V1" t="s">
         <v>45</v>
       </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10111011</v>
       </c>
@@ -737,8 +745,11 @@
       <c r="V2" t="s">
         <v>46</v>
       </c>
+      <c r="W2">
+        <v>71000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10111012</v>
       </c>
@@ -805,8 +816,11 @@
       <c r="V3" t="s">
         <v>46</v>
       </c>
+      <c r="W3">
+        <v>71000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10111013</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="V4" t="s">
         <v>46</v>
       </c>
+      <c r="W4">
+        <v>71000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10112011</v>
       </c>
@@ -941,8 +958,11 @@
       <c r="V5" t="s">
         <v>47</v>
       </c>
+      <c r="W5">
+        <v>71000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10112012</v>
       </c>
@@ -1009,8 +1029,11 @@
       <c r="V6" t="s">
         <v>47</v>
       </c>
+      <c r="W6">
+        <v>71000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10112013</v>
       </c>
@@ -1077,8 +1100,11 @@
       <c r="V7" t="s">
         <v>47</v>
       </c>
+      <c r="W7">
+        <v>71000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10121011</v>
       </c>
@@ -1146,7 +1172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10121012</v>
       </c>
@@ -1214,7 +1240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10121013</v>
       </c>
@@ -1282,7 +1308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10122011</v>
       </c>
@@ -1350,7 +1376,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10122012</v>
       </c>
@@ -1418,7 +1444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10122013</v>
       </c>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8675DDA-34A4-4C20-A3B1-E262AF86D93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446A1DB-A439-443A-82AF-F6E8C30F142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="30" yWindow="315" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>Arrow_Ricochet</t>
+  </si>
+  <si>
+    <t>_particleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -287,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -433,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -603,9 +607,10 @@
     <col min="20" max="20" width="31.5" customWidth="1"/>
     <col min="21" max="21" width="18.5" customWidth="1"/>
     <col min="22" max="22" width="15.125" customWidth="1"/>
+    <col min="23" max="23" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -672,8 +677,11 @@
       <c r="V1" t="s">
         <v>45</v>
       </c>
+      <c r="W1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10111011</v>
       </c>
@@ -740,8 +748,11 @@
       <c r="V2" t="s">
         <v>46</v>
       </c>
+      <c r="W2">
+        <v>71000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10111012</v>
       </c>
@@ -808,8 +819,11 @@
       <c r="V3" t="s">
         <v>46</v>
       </c>
+      <c r="W3">
+        <v>71000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10111013</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="V4" t="s">
         <v>46</v>
       </c>
+      <c r="W4">
+        <v>71000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10112011</v>
       </c>
@@ -944,8 +961,11 @@
       <c r="V5" t="s">
         <v>47</v>
       </c>
+      <c r="W5">
+        <v>71000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10112012</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="V6" t="s">
         <v>47</v>
       </c>
+      <c r="W6">
+        <v>71000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10112013</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="V7" t="s">
         <v>47</v>
       </c>
+      <c r="W7">
+        <v>71000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10121011</v>
       </c>
@@ -1149,7 +1175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10121012</v>
       </c>
@@ -1217,7 +1243,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10121013</v>
       </c>
@@ -1285,7 +1311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10122011</v>
       </c>
@@ -1353,7 +1379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10122012</v>
       </c>
@@ -1421,7 +1447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10122013</v>
       </c>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446A1DB-A439-443A-82AF-F6E8C30F142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFC0B20-7EF4-4266-85B4-D4A824F04849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="315" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -219,11 +219,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arrow_Ricochet</t>
-  </si>
-  <si>
     <t>_particleID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow_Penetrate</t>
   </si>
 </sst>
 </file>
@@ -291,9 +291,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +331,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -437,7 +437,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
         <v>45</v>
       </c>
       <c r="W1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U8">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFC0B20-7EF4-4266-85B4-D4A824F04849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14038B1-A590-4876-850C-E78E5CF9F1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,14 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Icons/Weapons/Melee/Axe_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +216,9 @@
   </si>
   <si>
     <t>Arrow_Penetrate</t>
+  </si>
+  <si>
+    <t>Cube_Ricochet</t>
   </si>
 </sst>
 </file>
@@ -590,7 +585,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -615,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -639,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -675,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -686,7 +681,7 @@
         <v>10111011</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -695,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -704,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -746,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W2">
         <v>71000002</v>
@@ -757,7 +752,7 @@
         <v>10111012</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -766,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -775,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>48</v>
@@ -817,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W3">
         <v>71000002</v>
@@ -828,7 +823,7 @@
         <v>10111013</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -837,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -846,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>96</v>
@@ -888,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W4">
         <v>71000002</v>
@@ -899,17 +894,17 @@
         <v>10112011</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -917,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I5">
         <v>28</v>
@@ -959,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W5">
         <v>71000001</v>
@@ -970,17 +965,17 @@
         <v>10112012</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -988,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6">
         <v>56</v>
@@ -1030,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W6">
         <v>71000001</v>
@@ -1041,17 +1036,17 @@
         <v>10112013</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
       <c r="F7">
         <v>1</v>
       </c>
@@ -1059,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I7">
         <v>112</v>
@@ -1101,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W7">
         <v>71000001</v>
@@ -1112,7 +1107,7 @@
         <v>10121011</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1121,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1130,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8">
         <v>35</v>
@@ -1166,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -1180,7 +1175,7 @@
         <v>10121012</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1189,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1198,7 +1193,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>70</v>
@@ -1234,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="U9">
         <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -1248,7 +1243,7 @@
         <v>10121013</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1257,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1266,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I10">
         <v>140</v>
@@ -1302,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="U10">
         <v>3</v>
       </c>
       <c r="V10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1316,7 +1311,7 @@
         <v>10122011</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1325,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1334,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>35</v>
@@ -1370,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="U11">
         <v>3</v>
       </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -1384,7 +1379,7 @@
         <v>10122012</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1393,7 +1388,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1402,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>70</v>
@@ -1438,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="U12">
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1452,7 +1447,7 @@
         <v>10122013</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1461,7 +1456,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1470,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>140</v>
@@ -1506,13 +1501,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="U13">
         <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446A1DB-A439-443A-82AF-F6E8C30F142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080CE8C7-57E4-4BEA-A579-17E4B94662E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="315" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,26 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>발등 조심하세요.</t>
-  </si>
-  <si>
     <t>Melee</t>
   </si>
   <si>
@@ -111,14 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_magicAtk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Icons/Weapons/Melee/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,9 +183,6 @@
   </si>
   <si>
     <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
-  </si>
-  <si>
-    <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,6 +190,142 @@
   </si>
   <si>
     <t>_particleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿는 도끼에 발 등 찍힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿지 않으면 발 등에 안 찍히나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무꾼은 테스트 해보기 위해 도끼를 던졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맙소사! 도끼는 날아가 산신령을 찍었다!
+- 라는 전설이 내려오는 전설의 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무꾼의 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 추적 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 칼이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강타의 거인</t>
+  </si>
+  <si>
+    <t>쌍검의 분노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 칼이다. 어느 왕국의 왕이 사용하던 검의 레플리카이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 칼이다. 어라? 여기 버튼이 있는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검을 쪼개버린 이상 우물까지 간다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강타의 거인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬광 스트라이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat GPT야, 활에 대한 이름을 지어줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어때요, 마음에 드시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 AI는 갈 길이 먼 것 같네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 거는 없어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위더스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에테리얼 스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬웨이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비로우면서도 고귀하고 우아한 느낌의 스태프.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소의 힘으로 큐브를 생성해 공격한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인이 성장함에 따라 스태프 또한 성장하는 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법에 통달한 자만이 사용할 수 있다는 전설의 스태프. 아니, 완드인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Sword_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Range/Bow_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Range/Wand_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Axe_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Sword_1_Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Sword_1_Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Axe_1_Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Axe_1_Unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,9 +372,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,17 +693,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
     <col min="5" max="5" width="39.625" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
@@ -612,73 +719,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
       <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
         <v>45</v>
-      </c>
-      <c r="W1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -686,16 +793,16 @@
         <v>10111011</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -704,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -713,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>30</v>
@@ -734,19 +841,19 @@
         <v>5</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W2">
         <v>71000002</v>
@@ -757,16 +864,16 @@
         <v>10111012</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -775,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I3">
         <v>48</v>
@@ -784,10 +891,10 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -796,28 +903,28 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>5</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W3">
         <v>71000002</v>
@@ -828,16 +935,16 @@
         <v>10111013</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -846,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="I4">
         <v>96</v>
@@ -855,10 +962,10 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -867,69 +974,69 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q4">
         <v>5</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W4">
         <v>71000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10112011</v>
+        <v>10111014</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -938,69 +1045,69 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <v>5</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="W5">
-        <v>71000001</v>
+        <v>71000002</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10112012</v>
+        <v>10112011</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
       <c r="I6">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1009,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="W6">
         <v>71000001</v>
@@ -1038,19 +1145,19 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10112013</v>
+        <v>10112012</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1059,19 +1166,19 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I7">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1080,28 +1187,28 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>5</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="W7">
         <v>71000001</v>
@@ -1109,155 +1216,161 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10121011</v>
+        <v>10112013</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8">
+        <v>112</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>35</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>0.7</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="W8">
+        <v>71000001</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10121012</v>
+        <v>10112014</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9">
-        <v>70</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>25</v>
-      </c>
-      <c r="N9">
-        <v>0.6</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>31</v>
-      </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="W9">
+        <v>71000001</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10121013</v>
+        <v>10121011</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1266,31 +1379,31 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
         <v>35</v>
-      </c>
-      <c r="I10">
-        <v>140</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -1302,63 +1415,63 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10122011</v>
+        <v>10121012</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>70</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11">
-        <v>35</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>20</v>
-      </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1370,63 +1483,63 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10122012</v>
+        <v>10121013</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I12">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -1438,63 +1551,63 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="U12">
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10122013</v>
+        <v>10121014</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>0.5</v>
+      </c>
+      <c r="O13">
         <v>15</v>
       </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>50</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
       <c r="P13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -1506,13 +1619,285 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10122011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="U13">
-        <v>3</v>
-      </c>
-      <c r="V13" t="s">
-        <v>48</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10122012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10122013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10122013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14038B1-A590-4876-850C-E78E5CF9F1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A83523C-EF37-4C9E-91F0-CA8CD960D605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="30" yWindow="315" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>발등 조심하세요.</t>
-  </si>
-  <si>
     <t>Melee</t>
   </si>
   <si>
@@ -111,14 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_magicAtk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,14 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Icons/Weapons/Melee/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,9 +175,6 @@
   </si>
   <si>
     <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
-  </si>
-  <si>
-    <t>Items/Prefabs/Weapons/Melee/Sword_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,10 +182,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿는 도끼에 발 등 찍힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿지 않으면 발 등에 안 찍히나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무꾼은 테스트 해보기 위해 도끼를 던졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맙소사! 도끼는 날아가 산신령을 찍었다!
+- 라는 전설이 내려오는 전설의 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무꾼의 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 추적 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 칼이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강타의 거인</t>
+  </si>
+  <si>
+    <t>쌍검의 분노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 칼이다. 어느 왕국의 왕이 사용하던 검의 레플리카이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 칼이다. 어라? 여기 버튼이 있는데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검을 쪼개버린 이상 우물까지 간다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강타의 거인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬광 스트라이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat GPT야, 활에 대한 이름을 지어줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어때요, 마음에 드시나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 AI는 갈 길이 먼 것 같네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 거는 없어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위더스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에테리얼 스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬웨이버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비로우면서도 고귀하고 우아한 느낌의 스태프.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소의 힘으로 큐브를 생성해 공격한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인이 성장함에 따라 스태프 또한 성장하는 듯 하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법에 통달한 자만이 사용할 수 있다는 전설의 스태프. 아니, 완드인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Sword_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Range/Bow_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Range/Wand_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Melee/Axe_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Sword_1_Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Sword_1_Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Axe_1_Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Axe_1_Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Arrow_Penetrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cube_Ricochet</t>
+  </si>
+  <si>
+    <t>Items/Icons/Weapons/Range/Bow_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Range/Bow_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Range/Bow_1_Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Range/Bow_1_Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Sword_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Range/Wand_1_Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Range/Wand_1_Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Range/Wand_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -264,9 +400,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -286,9 +425,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,7 +465,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -432,7 +571,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -574,7 +713,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,17 +721,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="63.25" customWidth="1"/>
     <col min="5" max="5" width="39.625" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
@@ -607,73 +747,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -681,16 +821,16 @@
         <v>10111011</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -699,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>24</v>
@@ -708,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>30</v>
@@ -729,19 +869,19 @@
         <v>5</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W2">
         <v>71000002</v>
@@ -752,16 +892,16 @@
         <v>10111012</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -770,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>48</v>
@@ -779,10 +919,10 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -791,28 +931,28 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>5</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W3">
         <v>71000002</v>
@@ -823,16 +963,16 @@
         <v>10111013</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -841,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>96</v>
@@ -850,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -862,69 +1002,69 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q4">
         <v>5</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W4">
         <v>71000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10112011</v>
+        <v>10111014</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -933,69 +1073,69 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <v>5</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="W5">
-        <v>71000001</v>
+        <v>71000002</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10112012</v>
+        <v>10112011</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
       <c r="I6">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1004,28 +1144,28 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="W6">
         <v>71000001</v>
@@ -1033,19 +1173,19 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10112013</v>
+        <v>10112012</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1054,19 +1194,19 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I7">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="J7">
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1075,28 +1215,28 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
         <v>5</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="W7">
         <v>71000001</v>
@@ -1104,155 +1244,161 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10121011</v>
+        <v>10112013</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8">
+        <v>112</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8">
-        <v>35</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>0.7</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>10</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" t="s">
-        <v>52</v>
-      </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="W8">
+        <v>71000001</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10121012</v>
+        <v>10112014</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>70</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>25</v>
-      </c>
-      <c r="N9">
-        <v>0.6</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" t="s">
-        <v>52</v>
-      </c>
       <c r="U9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="W9">
+        <v>71000001</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10121013</v>
+        <v>10121011</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1261,31 +1407,31 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I10">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -1297,63 +1443,63 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10122011</v>
+        <v>10121012</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <v>70</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <v>35</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>20</v>
-      </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1365,63 +1511,63 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10122012</v>
+        <v>10121013</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I12">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -1433,63 +1579,63 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="U12">
         <v>3</v>
       </c>
       <c r="V12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10122013</v>
+        <v>10121014</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I13">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>0.5</v>
+      </c>
+      <c r="O13">
         <v>15</v>
       </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>50</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
       <c r="P13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -1501,13 +1647,285 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="U13">
         <v>3</v>
       </c>
       <c r="V13" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10122011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>78</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10122012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>30</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10122013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>60</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>78</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10122013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A83523C-EF37-4C9E-91F0-CA8CD960D605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8CEBC-144E-4921-A978-F2109D6AE3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="315" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,10 @@
   </si>
   <si>
     <t>Items/Prefabs/Weapons/Range/Wand_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Weapons/Melee/Axe_1_Epic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +728,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1862,7 +1866,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>10122013</v>
+        <v>10122014</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8CEBC-144E-4921-A978-F2109D6AE3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE825EF2-3D38-400E-8833-F9CF96CE6D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="315" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,66 +186,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>믿는 도끼에 발 등 찍힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>믿지 않으면 발 등에 안 찍히나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무꾼은 테스트 해보기 위해 도끼를 던졌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맙소사! 도끼는 날아가 산신령을 찍었다!
-- 라는 전설이 내려오는 전설의 도끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나무꾼의 도끼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동 추적 도끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범한 칼이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강타의 거인</t>
-  </si>
-  <si>
-    <t>쌍검의 분노</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범한 칼이다. 어느 왕국의 왕이 사용하던 검의 레플리카이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범한 칼이다. 어라? 여기 버튼이 있는데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검을 쪼개버린 이상 우물까지 간다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강타의 거인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>섬광 스트라이커</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chat GPT야, 활에 대한 이름을 지어줘.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어때요, 마음에 드시나요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다른 거는 없어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위더스트링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마법에 통달한 자만이 사용할 수 있다는 전설의 스태프. 아니, 완드인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Icons/Weapons/Melee/Sword_1_Epic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,6 +298,62 @@
   </si>
   <si>
     <t>Items/Prefabs/Weapons/Melee/Axe_1_Epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 이유로 항상 발을 향해 떨어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들의 머리 위로 날아가 발을 향해 떨어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲 정령의 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;스킬&lt;/color&gt; : 폭발하는 나뭇잎들을 주변에 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도끼가 발을 향해 떨어지는 것은 원한을 품은 정령의 짓이라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한 힘이 느껴지는 검이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기라도 나갈 것 같은 힘이 느껴진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;스킬&lt;/color&gt; : 적들을 관통하는 검기를 발산합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;스킬&lt;/color&gt; : 위에 있으면 데미지를 주는 장판을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;스킬&lt;/color&gt; : 분노를 발산하여 일정 시간 동안 연사력이 올라갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT야, 활에 대한 이름을 지어줘.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +724,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,7 +732,7 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="63.25" customWidth="1"/>
+    <col min="4" max="4" width="68.5" customWidth="1"/>
     <col min="5" max="5" width="39.625" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
@@ -828,10 +824,10 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -899,10 +895,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -914,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>48</v>
@@ -970,10 +966,10 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -985,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I4">
         <v>96</v>
@@ -1033,7 +1029,7 @@
         <v>71000002</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10111014</v>
       </c>
@@ -1041,13 +1037,13 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1056,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1112,10 +1108,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -1183,10 +1179,10 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -1198,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I7">
         <v>56</v>
@@ -1254,10 +1250,10 @@
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1269,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I8">
         <v>112</v>
@@ -1325,13 +1321,13 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1340,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1396,10 +1392,10 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -1447,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1464,13 +1460,13 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1479,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="I11">
         <v>70</v>
@@ -1515,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1532,13 +1528,13 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1547,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I12">
         <v>140</v>
@@ -1583,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -1600,13 +1596,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1615,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1651,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -1668,10 +1664,10 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -1719,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -1736,10 +1732,10 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -1751,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I15">
         <v>70</v>
@@ -1787,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -1804,10 +1800,10 @@
         <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -1819,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I16">
         <v>90</v>
@@ -1855,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -1872,22 +1868,22 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
         <v>71</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1923,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="U17">
         <v>3</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE825EF2-3D38-400E-8833-F9CF96CE6D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCC14A-24C9-48C7-9E5C-09173BDA3663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="375" yWindow="660" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="Q2" sqref="Q2:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R8">
         <v>5</v>
@@ -1363,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R9">
         <v>5</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCC14A-24C9-48C7-9E5C-09173BDA3663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28786B86-A66C-4E15-ACB1-2AB8F647A7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="660" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,7 +913,7 @@
         <v>60</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -984,7 +984,7 @@
         <v>61</v>
       </c>
       <c r="I4">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -1055,7 +1055,7 @@
         <v>72</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>58</v>
       </c>
       <c r="I7">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J7">
         <v>15</v>
@@ -1268,7 +1268,7 @@
         <v>59</v>
       </c>
       <c r="I8">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="J8">
         <v>15</v>
@@ -1339,7 +1339,7 @@
         <v>68</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J9">
         <v>15</v>
@@ -1478,7 +1478,7 @@
         <v>67</v>
       </c>
       <c r="I11">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1546,7 +1546,7 @@
         <v>66</v>
       </c>
       <c r="I12">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1614,7 +1614,7 @@
         <v>65</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1750,7 +1750,7 @@
         <v>69</v>
       </c>
       <c r="I15">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="J15">
         <v>15</v>
@@ -1818,7 +1818,7 @@
         <v>70</v>
       </c>
       <c r="I16">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="J16">
         <v>15</v>
@@ -1886,7 +1886,7 @@
         <v>71</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="J17">
         <v>15</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28786B86-A66C-4E15-ACB1-2AB8F647A7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FB2797-D1A0-4617-8060-F5549304EFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -349,11 +349,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color="red"&gt;스킬&lt;/color&gt; : 분노를 발산하여 일정 시간 동안 연사력이 올라갑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPT야, 활에 대한 이름을 지어줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color="red"&gt;스킬&lt;/color&gt; : 2초마다 주변을 향해 화살을 발사합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +724,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1395,7 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -1599,7 +1599,7 @@
         <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
         <v>55</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FB2797-D1A0-4617-8060-F5549304EFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17DC9FB-00FD-44C5-94E0-183771A71483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="s">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S8" t="s">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S9" t="s">
         <v>1</v>

--- a/Assets/Excel/Items/WeaponDB_Sheet.xlsx
+++ b/Assets/Excel/Items/WeaponDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17DC9FB-00FD-44C5-94E0-183771A71483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F12D16-1A8E-4EEA-859F-92C66766E728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{064CB631-03A8-40F1-A978-87CA5E6CA866}"/>
   </bookViews>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473E7DDB-F7BE-402A-B284-D6385005C611}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -851,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>19</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>43</v>
       </c>
       <c r="L5">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" t="s">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>43</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>0</v>
